--- a/Compliance Status.xlsx
+++ b/Compliance Status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Cycle</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>DD-MMM-YYYY</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>Cycle-2</t>
@@ -408,8 +405,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>43</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -423,13 +420,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>43</v>
       </c>
       <c r="D3">
         <v>17</v>
